--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="364">
   <si>
     <t>API Mode</t>
   </si>
@@ -1107,6 +1107,33 @@
   </si>
   <si>
     <t>RMA-NDPI-1-3</t>
+  </si>
+  <si>
+    <t>RMA-E8YI-001</t>
+  </si>
+  <si>
+    <t>RMA-E8YI-002</t>
+  </si>
+  <si>
+    <t>RMA-E8YI-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAeAAM</t>
+  </si>
+  <si>
+    <t>RMA-E8YI-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAfAAM</t>
+  </si>
+  <si>
+    <t>RMA-E8YI-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAgAAM</t>
+  </si>
+  <si>
+    <t>RMA-E8YI-1-3</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="389" x14ac:knownFonts="1">
+  <fonts count="401" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1136,6 +1163,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3462,7 +3561,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="194">
+  <borders count="200">
     <border>
       <left/>
       <right/>
@@ -4049,11 +4148,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="389">
+  <cellXfs count="401">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -4441,8 +4558,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="191" fillId="0" fontId="384" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="385" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="192" fillId="0" fontId="386" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="388" fillId="0" borderId="193" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="387" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="193" fillId="0" fontId="388" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="389" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="194" fillId="0" fontId="390" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="391" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="195" fillId="0" fontId="392" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="393" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="196" fillId="0" fontId="394" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="395" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="197" fillId="0" fontId="396" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="397" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="198" fillId="0" fontId="398" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="400" fillId="0" borderId="199" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -5230,11 +5359,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.09765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.44921875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.03515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.16796875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -5284,10 +5413,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -5296,7 +5425,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5313,10 +5442,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -5325,7 +5454,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5342,10 +5471,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -5354,7 +5483,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="382">
   <si>
     <t>API Mode</t>
   </si>
@@ -1134,6 +1134,60 @@
   </si>
   <si>
     <t>RMA-E8YI-1-3</t>
+  </si>
+  <si>
+    <t>RMA-O7EC-001</t>
+  </si>
+  <si>
+    <t>RMA-O7EC-002</t>
+  </si>
+  <si>
+    <t>RMA-O7EC-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrYAAU</t>
+  </si>
+  <si>
+    <t>RMA-O7EC-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrZAAU</t>
+  </si>
+  <si>
+    <t>RMA-O7EC-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMraAAE</t>
+  </si>
+  <si>
+    <t>RMA-O7EC-1-3</t>
+  </si>
+  <si>
+    <t>RMA-ZYC7-001</t>
+  </si>
+  <si>
+    <t>RMA-ZYC7-002</t>
+  </si>
+  <si>
+    <t>RMA-ZYC7-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMriAAE</t>
+  </si>
+  <si>
+    <t>RMA-ZYC7-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrjAAE</t>
+  </si>
+  <si>
+    <t>RMA-ZYC7-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrkAAE</t>
+  </si>
+  <si>
+    <t>RMA-ZYC7-1-3</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="401" x14ac:knownFonts="1">
+  <fonts count="425" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1163,6 +1217,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3561,7 +3759,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="200">
+  <borders count="212">
     <border>
       <left/>
       <right/>
@@ -4166,11 +4364,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="401">
+  <cellXfs count="425">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -4570,8 +4804,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="197" fillId="0" fontId="396" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="397" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="198" fillId="0" fontId="398" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="400" fillId="0" borderId="199" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="399" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="199" fillId="0" fontId="400" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="401" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="200" fillId="0" fontId="402" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="403" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="201" fillId="0" fontId="404" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="405" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="202" fillId="0" fontId="406" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="407" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="203" fillId="0" fontId="408" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="409" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="204" fillId="0" fontId="410" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="411" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="205" fillId="0" fontId="412" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="413" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="206" fillId="0" fontId="414" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="415" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="207" fillId="0" fontId="416" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="417" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="208" fillId="0" fontId="418" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="419" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="209" fillId="0" fontId="420" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="421" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="210" fillId="0" fontId="422" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="424" fillId="0" borderId="211" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -5359,11 +5617,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.44921875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0234375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.16796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.76171875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -5413,10 +5671,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -5425,7 +5683,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5442,10 +5700,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F3" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -5454,7 +5712,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5471,10 +5729,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="F4" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -5483,7 +5741,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="391">
   <si>
     <t>API Mode</t>
   </si>
@@ -1188,6 +1188,33 @@
   </si>
   <si>
     <t>RMA-ZYC7-1-3</t>
+  </si>
+  <si>
+    <t>RMA-M7GG-001</t>
+  </si>
+  <si>
+    <t>RMA-M7GG-002</t>
+  </si>
+  <si>
+    <t>RMA-M7GG-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNYDAA2</t>
+  </si>
+  <si>
+    <t>RMA-M7GG-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNYEAA2</t>
+  </si>
+  <si>
+    <t>RMA-M7GG-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNYFAA2</t>
+  </si>
+  <si>
+    <t>RMA-M7GG-1-3</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="425" x14ac:knownFonts="1">
+  <fonts count="437" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1217,6 +1244,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3759,7 +3858,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="212">
+  <borders count="218">
     <border>
       <left/>
       <right/>
@@ -4400,11 +4499,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="425">
+  <cellXfs count="437">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -4828,8 +4945,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="209" fillId="0" fontId="420" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="421" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="210" fillId="0" fontId="422" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="424" fillId="0" borderId="211" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="423" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="211" fillId="0" fontId="424" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="425" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="212" fillId="0" fontId="426" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="427" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="213" fillId="0" fontId="428" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="429" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="214" fillId="0" fontId="430" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="431" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="215" fillId="0" fontId="432" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="433" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="216" fillId="0" fontId="434" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="436" fillId="0" borderId="217" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -5616,12 +5745,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0234375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.84765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.40625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.76171875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -5671,10 +5800,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="F2" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -5683,7 +5812,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5700,10 +5829,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="F3" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -5712,7 +5841,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5729,10 +5858,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F4" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -5741,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
